--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>ID Actividad</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Mockup Diseño</t>
   </si>
   <si>
-    <t>No finalizado</t>
+    <t>Finalizado</t>
   </si>
   <si>
     <t>muy alta</t>
@@ -46,7 +46,16 @@
     <t>Javier y Vera</t>
   </si>
   <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Javier, Diego y Roberto</t>
+  </si>
+  <si>
     <t>Diseñar Search</t>
+  </si>
+  <si>
+    <t>No finalizado</t>
   </si>
   <si>
     <t>Diego y Roberto</t>
@@ -392,7 +401,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.57"/>
-    <col customWidth="1" min="2" max="2" width="80.0"/>
+    <col customWidth="1" min="2" max="2" width="55.29"/>
     <col customWidth="1" min="3" max="3" width="12.86"/>
     <col customWidth="1" min="4" max="6" width="16.29"/>
     <col customWidth="1" min="7" max="7" width="21.57"/>
@@ -507,24 +516,24 @@
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="7">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
-        <v>50.0</v>
+      <c r="D4" s="8">
+        <v>15.0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2.0</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="2"/>
@@ -549,25 +558,25 @@
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="7">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D5" s="8">
-        <v>15.0</v>
+      <c r="D5" s="9">
+        <v>50.0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>2.0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>12</v>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -591,25 +600,25 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="E6" s="8">
         <v>2.0</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
+      <c r="F6" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>40.0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -633,28 +642,30 @@
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>40.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>2.0</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -673,29 +684,28 @@
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="E8" s="9">
         <v>3.0</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>15</v>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -714,25 +724,25 @@
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="7">
-        <v>4.0</v>
+        <v>24.0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -755,25 +765,25 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="7">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="D10" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="10">
         <v>3.0</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>15</v>
+      <c r="E10" s="10">
+        <v>3.0</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>20</v>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -796,25 +806,25 @@
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="7">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D11" s="8">
-        <v>25.0</v>
+      <c r="D11" s="9">
+        <v>20.0</v>
       </c>
-      <c r="E11" s="8">
-        <v>4.0</v>
+      <c r="E11" s="9">
+        <v>3.0</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>15</v>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>22</v>
+      <c r="G11" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -837,30 +847,29 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="7">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="D12" s="9">
-        <v>15.0</v>
+      <c r="D12" s="8">
+        <v>25.0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>4.0</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>24</v>
+      <c r="G12" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -879,24 +888,24 @@
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="7">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>8</v>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D13" s="8">
-        <v>20.0</v>
+      <c r="D13" s="9">
+        <v>15.0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>4.0</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>26</v>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="2"/>
@@ -921,25 +930,25 @@
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="7">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>8</v>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>20.0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>4.0</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>26</v>
+      <c r="F14" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>29</v>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -963,25 +972,25 @@
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="7">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>8</v>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D15" s="8">
-        <v>10.0</v>
+      <c r="D15" s="9">
+        <v>20.0</v>
       </c>
-      <c r="E15" s="8">
-        <v>5.0</v>
+      <c r="E15" s="9">
+        <v>4.0</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>26</v>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>31</v>
+      <c r="G15" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1005,25 +1014,25 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="8">
         <v>10.0</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>5.0</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>26</v>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>24</v>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1047,25 +1056,25 @@
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="7">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>33</v>
+      <c r="B17" s="11" t="s">
+        <v>35</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>8</v>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D17" s="10">
-        <v>8.0</v>
+      <c r="D17" s="9">
+        <v>10.0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>5.0</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>26</v>
+      <c r="F17" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>34</v>
+      <c r="G17" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1089,25 +1098,25 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="7">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
+      <c r="B18" s="10" t="s">
+        <v>36</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>8</v>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="D18" s="9">
-        <v>6.0</v>
+      <c r="D18" s="10">
+        <v>8.0</v>
       </c>
-      <c r="E18" s="9">
-        <v>6.0</v>
+      <c r="E18" s="10">
+        <v>5.0</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>26</v>
+      <c r="F18" s="10" t="s">
+        <v>29</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>36</v>
+      <c r="G18" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1131,25 +1140,25 @@
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="7">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>37</v>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>8</v>
+      <c r="C19" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D19" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="9">
         <v>6.0</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>26</v>
+      <c r="E19" s="9">
+        <v>6.0</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1173,25 +1182,25 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="7">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>38</v>
+      <c r="B20" s="8" t="s">
+        <v>40</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>8</v>
+      <c r="C20" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>10.0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>6.0</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>26</v>
+      <c r="F20" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>20</v>
+      <c r="G20" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1215,25 +1224,25 @@
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="7">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>39</v>
+      <c r="B21" s="9" t="s">
+        <v>41</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>8</v>
+      <c r="C21" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>10.0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <v>6.0</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>26</v>
+      <c r="F21" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>40</v>
+      <c r="G21" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1257,25 +1266,25 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="7">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>41</v>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>8</v>
+      <c r="C22" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="D22" s="9">
-        <v>8.0</v>
+      <c r="D22" s="8">
+        <v>10.0</v>
       </c>
-      <c r="E22" s="9">
-        <v>7.0</v>
+      <c r="E22" s="8">
+        <v>6.0</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>26</v>
+      <c r="F22" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>24</v>
+      <c r="G22" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1299,25 +1308,25 @@
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="7">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>42</v>
+      <c r="B23" s="9" t="s">
+        <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>8</v>
+      <c r="C23" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>8.0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <v>7.0</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>43</v>
+      <c r="F23" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>34</v>
+      <c r="G23" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1341,25 +1350,25 @@
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="7">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>44</v>
+      <c r="B24" s="8" t="s">
+        <v>45</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
+      <c r="C24" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="D24" s="9">
-        <v>6.0</v>
+      <c r="D24" s="8">
+        <v>8.0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>7.0</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>43</v>
+      <c r="F24" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>45</v>
+      <c r="G24" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1383,25 +1392,25 @@
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="7">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>47</v>
+      <c r="G25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1424,26 +1433,26 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="12">
-        <v>18.0</v>
+      <c r="A26" s="7">
+        <v>17.0</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
+      <c r="B26" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>8</v>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="8">
         <v>15.0</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="8">
         <v>8.0</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>43</v>
+      <c r="F26" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>27</v>
+      <c r="G26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1466,26 +1475,26 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="14">
-        <v>19.0</v>
+      <c r="A27" s="12">
+        <v>18.0</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>49</v>
+      <c r="B27" s="13" t="s">
+        <v>51</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>8</v>
+      <c r="C27" s="13" t="s">
+        <v>14</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>15.0</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>8.0</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>43</v>
+      <c r="F27" s="13" t="s">
+        <v>46</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>45</v>
+      <c r="G27" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1508,13 +1517,27 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1535,33 +1558,33 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="16"/>
@@ -2152,13 +2175,13 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" ht="19.5" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -28751,6 +28774,34 @@
       <c r="Y1005" s="2"/>
       <c r="Z1005" s="2"/>
     </row>
+    <row r="1006" ht="19.5" customHeight="1">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
